--- a/dataFiles/onboarding/onboardingElderCare - Negative.xlsx
+++ b/dataFiles/onboarding/onboardingElderCare - Negative.xlsx
@@ -345,16 +345,16 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>prabhaAutoNTng8248@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoZqdD7125@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutobOVK3175@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoIRBU7997@mailinator.com</t>
+    <t>prabhaautofsff5902@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaautosfmg6935@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaautotcyd9427@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaautogaxa3563@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BE4" sqref="A1:BF5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,7 @@
         <v>43</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>44</v>
@@ -1249,7 +1249,7 @@
         <v>43</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>44</v>
@@ -1425,7 +1425,7 @@
         <v>43</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>44</v>
@@ -1601,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>44</v>
